--- a/feature_excels/DOE1_features.xlsx
+++ b/feature_excels/DOE1_features.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Trajectory_length</t>
+          <t>trajectory_length</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peak_count</t>
+          <t>maxima_count</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>valley_count</t>
+          <t>minima_count</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
